--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt3-Ryk.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt3</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt3</t>
-  </si>
-  <si>
-    <t>Ryk</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,25 +534,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H2">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I2">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J2">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N2">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O2">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P2">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q2">
-        <v>1.209463861361</v>
+        <v>0.08831757835833333</v>
       </c>
       <c r="R2">
-        <v>4.837855445444</v>
+        <v>0.5299054701499999</v>
       </c>
       <c r="S2">
-        <v>0.07914032955128202</v>
+        <v>0.00568433058666993</v>
       </c>
       <c r="T2">
-        <v>0.05163739308906685</v>
+        <v>0.005191835909801801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H3">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I3">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J3">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O3">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P3">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q3">
-        <v>3.893525550939168</v>
+        <v>0.2055928362055556</v>
       </c>
       <c r="R3">
-        <v>23.36115330563501</v>
+        <v>1.85033552585</v>
       </c>
       <c r="S3">
-        <v>0.2547698241028226</v>
+        <v>0.01323244668804022</v>
       </c>
       <c r="T3">
-        <v>0.2493478918211698</v>
+        <v>0.01812896633350602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H4">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I4">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J4">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N4">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O4">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P4">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q4">
-        <v>0.03299935425433334</v>
+        <v>0.0005245780633333333</v>
       </c>
       <c r="R4">
-        <v>0.197996125526</v>
+        <v>0.00472120257</v>
       </c>
       <c r="S4">
-        <v>0.002159287147057582</v>
+        <v>3.376309887487289E-05</v>
       </c>
       <c r="T4">
-        <v>0.002113333868527765</v>
+        <v>4.625675789577346E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H5">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I5">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J5">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N5">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O5">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P5">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q5">
-        <v>2.89213810730125</v>
+        <v>0.1479416657366666</v>
       </c>
       <c r="R5">
-        <v>11.568552429205</v>
+        <v>0.8876499944199998</v>
       </c>
       <c r="S5">
-        <v>0.1892448135342214</v>
+        <v>0.009521879462974248</v>
       </c>
       <c r="T5">
-        <v>0.1234782427864612</v>
+        <v>0.008696896665476184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H6">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I6">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J6">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N6">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O6">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P6">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q6">
-        <v>1.022273331548833</v>
+        <v>0.0003604637088888888</v>
       </c>
       <c r="R6">
-        <v>6.133639989293</v>
+        <v>0.003244173379999999</v>
       </c>
       <c r="S6">
-        <v>0.06689166244225113</v>
+        <v>2.320030648381405E-05</v>
       </c>
       <c r="T6">
-        <v>0.06546809485434604</v>
+        <v>3.178532172377704E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,19 +850,19 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1356595</v>
+        <v>0.007163333333333333</v>
       </c>
       <c r="H7">
-        <v>0.271319</v>
+        <v>0.02149</v>
       </c>
       <c r="I7">
-        <v>0.594607921560205</v>
+        <v>0.02854141293939366</v>
       </c>
       <c r="J7">
-        <v>0.4943958424822655</v>
+        <v>0.03215847889945873</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N7">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O7">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P7">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q7">
-        <v>0.03670869196283334</v>
+        <v>0.0007114837566666667</v>
       </c>
       <c r="R7">
-        <v>0.220252151777</v>
+        <v>0.006403353809999999</v>
       </c>
       <c r="S7">
-        <v>0.002402004782570352</v>
+        <v>4.579279635057558E-05</v>
       </c>
       <c r="T7">
-        <v>0.002350886062693832</v>
+        <v>6.273791105518026E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +906,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H8">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I8">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J8">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N8">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O8">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P8">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q8">
-        <v>0.06386425420666668</v>
+        <v>1.04412830284</v>
       </c>
       <c r="R8">
-        <v>0.38318552524</v>
+        <v>4.17651321136</v>
       </c>
       <c r="S8">
-        <v>0.0041789079326231</v>
+        <v>0.06720259498239689</v>
       </c>
       <c r="T8">
-        <v>0.004089973711697473</v>
+        <v>0.04092007440942718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H9">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I9">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J9">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O9">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P9">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q9">
-        <v>0.2055928362055556</v>
+        <v>2.430606716506667</v>
       </c>
       <c r="R9">
-        <v>1.85033552585</v>
+        <v>14.58364029904</v>
       </c>
       <c r="S9">
-        <v>0.01345280775266914</v>
+        <v>0.1564396619520824</v>
       </c>
       <c r="T9">
-        <v>0.01974976391346327</v>
+        <v>0.1428856119918063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H10">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I10">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J10">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N10">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O10">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P10">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q10">
-        <v>0.001742490384444445</v>
+        <v>0.006201786928000001</v>
       </c>
       <c r="R10">
-        <v>0.01568241346</v>
+        <v>0.037210721568</v>
       </c>
       <c r="S10">
-        <v>0.0001140185066048143</v>
+        <v>0.0003991618405093396</v>
       </c>
       <c r="T10">
-        <v>0.000167388000230952</v>
+        <v>0.000364578158462286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H11">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I11">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J11">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N11">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O11">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P11">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q11">
-        <v>0.1527158017583333</v>
+        <v>1.749029844752</v>
       </c>
       <c r="R11">
-        <v>0.9162948105500001</v>
+        <v>6.996119379007999</v>
       </c>
       <c r="S11">
-        <v>0.009992840021894076</v>
+        <v>0.1125717442476077</v>
       </c>
       <c r="T11">
-        <v>0.009780175503672987</v>
+        <v>0.0685456291117587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H12">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I12">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J12">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N12">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O12">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P12">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q12">
-        <v>0.05397988811444445</v>
+        <v>0.004261556618666666</v>
       </c>
       <c r="R12">
-        <v>0.48581899303</v>
+        <v>0.025569339712</v>
       </c>
       <c r="S12">
-        <v>0.003532132104973547</v>
+        <v>0.0002742839770360044</v>
       </c>
       <c r="T12">
-        <v>0.005185443549548305</v>
+        <v>0.0002505198069933207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.007163333333333334</v>
+        <v>0.084688</v>
       </c>
       <c r="H13">
-        <v>0.02149</v>
+        <v>0.169376</v>
       </c>
       <c r="I13">
-        <v>0.03139754123210146</v>
+        <v>0.3374288290848819</v>
       </c>
       <c r="J13">
-        <v>0.0391589481567597</v>
+        <v>0.2534608898126907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N13">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O13">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P13">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q13">
-        <v>0.001938357407777778</v>
+        <v>0.008411466224</v>
       </c>
       <c r="R13">
-        <v>0.01744521667</v>
+        <v>0.050468797344</v>
       </c>
       <c r="S13">
-        <v>0.0001268349133367902</v>
+        <v>0.0005413820852495409</v>
       </c>
       <c r="T13">
-        <v>0.0001862034781467219</v>
+        <v>0.0004944763342430067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H14">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I14">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J14">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N14">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O14">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P14">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q14">
-        <v>0.57023141448</v>
+        <v>1.885286453983333</v>
       </c>
       <c r="R14">
-        <v>3.42138848688</v>
+        <v>11.3117187239</v>
       </c>
       <c r="S14">
-        <v>0.03731265026113171</v>
+        <v>0.1213415455248471</v>
       </c>
       <c r="T14">
-        <v>0.03651857402515174</v>
+        <v>0.1108284227669837</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H15">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I15">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J15">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O15">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P15">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q15">
-        <v>1.8356981578</v>
+        <v>4.388723019122223</v>
       </c>
       <c r="R15">
-        <v>16.5212834202</v>
+        <v>39.49850717210001</v>
       </c>
       <c r="S15">
-        <v>0.1201174849503096</v>
+        <v>0.2824687107339028</v>
       </c>
       <c r="T15">
-        <v>0.1763417729043895</v>
+        <v>0.3869931138125898</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H16">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I16">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J16">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N16">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O16">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P16">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q16">
-        <v>0.01555835528</v>
+        <v>0.01119799631333333</v>
       </c>
       <c r="R16">
-        <v>0.14002519752</v>
+        <v>0.10078196682</v>
       </c>
       <c r="S16">
-        <v>0.001018048908670627</v>
+        <v>0.0007207298267966119</v>
       </c>
       <c r="T16">
-        <v>0.001494574661903912</v>
+        <v>0.0009874278788788793</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H17">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I17">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J17">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N17">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O17">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P17">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q17">
-        <v>1.3635694761</v>
+        <v>3.158062342486666</v>
       </c>
       <c r="R17">
-        <v>8.181416856599999</v>
+        <v>18.94837405492</v>
       </c>
       <c r="S17">
-        <v>0.08922411090744697</v>
+        <v>0.2032604460141836</v>
       </c>
       <c r="T17">
-        <v>0.08732527108630862</v>
+        <v>0.1856498081117052</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,46 +1535,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H18">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I18">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J18">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N18">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O18">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P18">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q18">
-        <v>0.48197584604</v>
+        <v>0.007694700875555554</v>
       </c>
       <c r="R18">
-        <v>4.33778261436</v>
+        <v>0.06925230787999999</v>
       </c>
       <c r="S18">
-        <v>0.03153771560271402</v>
+        <v>0.0004952493530193047</v>
       </c>
       <c r="T18">
-        <v>0.04629980959922422</v>
+        <v>0.0006785108649402272</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.06396</v>
+        <v>0.1529133333333333</v>
       </c>
       <c r="H19">
-        <v>0.19188</v>
+        <v>0.45874</v>
       </c>
       <c r="I19">
-        <v>0.2803424947238543</v>
+        <v>0.6092642052962981</v>
       </c>
       <c r="J19">
-        <v>0.3496425766551443</v>
+        <v>0.6864765290990089</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N19">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O19">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P19">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q19">
-        <v>0.01730721356</v>
+        <v>0.01518781100666666</v>
       </c>
       <c r="R19">
-        <v>0.15576492204</v>
+        <v>0.13669029906</v>
       </c>
       <c r="S19">
-        <v>0.001132484093581354</v>
+        <v>0.0009775238435487685</v>
       </c>
       <c r="T19">
-        <v>0.001662574378166263</v>
+        <v>0.00133924566391128</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H20">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I20">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J20">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.915438</v>
+        <v>12.3291175</v>
       </c>
       <c r="N20">
-        <v>17.830876</v>
+        <v>24.658235</v>
       </c>
       <c r="O20">
-        <v>0.1330966619879936</v>
+        <v>0.1991607983368005</v>
       </c>
       <c r="P20">
-        <v>0.1044454436141807</v>
+        <v>0.1614453197874725</v>
       </c>
       <c r="Q20">
-        <v>0.1904931919333334</v>
+        <v>0.07663368467416666</v>
       </c>
       <c r="R20">
-        <v>1.1429591516</v>
+        <v>0.459802108045</v>
       </c>
       <c r="S20">
-        <v>0.01246477424295676</v>
+        <v>0.004932327242886654</v>
       </c>
       <c r="T20">
-        <v>0.01219950278826468</v>
+        <v>0.004504986701259851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1721,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H21">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I21">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J21">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>86.10216500000001</v>
       </c>
       <c r="O21">
-        <v>0.42846691889729</v>
+        <v>0.4636226915653649</v>
       </c>
       <c r="P21">
-        <v>0.5043486825642435</v>
+        <v>0.563738303362699</v>
       </c>
       <c r="Q21">
-        <v>0.6132387529444446</v>
+        <v>0.1783941189727778</v>
       </c>
       <c r="R21">
-        <v>5.519148776500002</v>
+        <v>1.605547070755</v>
       </c>
       <c r="S21">
-        <v>0.04012680209148868</v>
+        <v>0.01148187219133951</v>
       </c>
       <c r="T21">
-        <v>0.05890925392522081</v>
+        <v>0.01573061122479697</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1783,46 +1783,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H22">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I22">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J22">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2432513333333333</v>
+        <v>0.073231</v>
       </c>
       <c r="N22">
-        <v>0.729754</v>
+        <v>0.219693</v>
       </c>
       <c r="O22">
-        <v>0.003631446990130538</v>
+        <v>0.001182951206605196</v>
       </c>
       <c r="P22">
-        <v>0.004274578560202138</v>
+        <v>0.001438400057427841</v>
       </c>
       <c r="Q22">
-        <v>0.005197470155555556</v>
+        <v>0.0004551794856666667</v>
       </c>
       <c r="R22">
-        <v>0.0467772314</v>
+        <v>0.004096615371</v>
       </c>
       <c r="S22">
-        <v>0.000340092427797515</v>
+        <v>2.929644042437203E-05</v>
       </c>
       <c r="T22">
-        <v>0.0004992820295395079</v>
+        <v>4.013726219090217E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H23">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I23">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J23">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.3190975</v>
+        <v>20.652629</v>
       </c>
       <c r="N23">
-        <v>42.638195</v>
+        <v>41.30525799999999</v>
       </c>
       <c r="O23">
-        <v>0.3182682347010409</v>
+        <v>0.3336162608064818</v>
       </c>
       <c r="P23">
-        <v>0.2497558275702743</v>
+        <v>0.2704386825218454</v>
       </c>
       <c r="Q23">
-        <v>0.4555180499166667</v>
+        <v>0.1283698576543333</v>
       </c>
       <c r="R23">
-        <v>2.7331082995</v>
+        <v>0.7702191459259999</v>
       </c>
       <c r="S23">
-        <v>0.02980647023747838</v>
+        <v>0.008262191081716186</v>
       </c>
       <c r="T23">
-        <v>0.02917213819383148</v>
+        <v>0.007546348632905278</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1907,46 +1907,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H24">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I24">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J24">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>7.535582333333333</v>
+        <v>0.05032066666666666</v>
       </c>
       <c r="N24">
-        <v>22.606747</v>
+        <v>0.150962</v>
       </c>
       <c r="O24">
-        <v>0.1124970926501157</v>
+        <v>0.0008128646795825703</v>
       </c>
       <c r="P24">
-        <v>0.1324203992607289</v>
+        <v>0.0009883963051595711</v>
       </c>
       <c r="Q24">
-        <v>0.1610102758555556</v>
+        <v>0.0003127764904444444</v>
       </c>
       <c r="R24">
-        <v>1.4490924827</v>
+        <v>0.002814988414</v>
       </c>
       <c r="S24">
-        <v>0.01053558250017703</v>
+        <v>2.013104304344722E-05</v>
       </c>
       <c r="T24">
-        <v>0.01546705125761035</v>
+        <v>2.758031150224619E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02136666666666667</v>
+        <v>0.006215666666666667</v>
       </c>
       <c r="H25">
-        <v>0.0641</v>
+        <v>0.018647</v>
       </c>
       <c r="I25">
-        <v>0.09365204248383918</v>
+        <v>0.02476555267942641</v>
       </c>
       <c r="J25">
-        <v>0.1168026327058305</v>
+        <v>0.02790410218884165</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2705943333333333</v>
+        <v>0.09932299999999999</v>
       </c>
       <c r="N25">
-        <v>0.8117829999999999</v>
+        <v>0.297969</v>
       </c>
       <c r="O25">
-        <v>0.004039644773429317</v>
+        <v>0.001604433405165134</v>
       </c>
       <c r="P25">
-        <v>0.00475506843037047</v>
+        <v>0.001950897965395876</v>
       </c>
       <c r="Q25">
-        <v>0.005781698922222223</v>
+        <v>0.0006173586603333333</v>
       </c>
       <c r="R25">
-        <v>0.0520352903</v>
+        <v>0.005556227943</v>
       </c>
       <c r="S25">
-        <v>0.0003783209839408213</v>
+        <v>3.973468001624862E-05</v>
       </c>
       <c r="T25">
-        <v>0.0005554045113636517</v>
+        <v>5.44380561864098E-05</v>
       </c>
     </row>
   </sheetData>
